--- a/base-llm/GPT/CustomerComplaint/GPT-4/ontology_URIs.xlsx
+++ b/base-llm/GPT/CustomerComplaint/GPT-4/ontology_URIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\GPT\CustomerComplaint\GPT-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B87C58-FF85-472B-82FB-FC4D32088CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0909384-B609-471B-9184-559A1A6D94E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URIs" sheetId="2" r:id="rId1"/>
